--- a/biology/Zoologie/Herl/Herl.xlsx
+++ b/biology/Zoologie/Herl/Herl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les herls sont les lames duveteuses de pennes de grands oiseaux (paon, condor, faisan, ...) qui se séparent du rachis central. Elles sont recouvertes de barbules. Sans barbules elles sont appelées quills.
 Ces plumes servent à l'assemblage de mouches de pêche.
